--- a/example-study-dd-conceptmap-1.xlsx
+++ b/example-study-dd-conceptmap-1.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-07T22:04:04+00:00</t>
+    <t>2022-04-07T22:04:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/example-study-dd-conceptmap-1.xlsx
+++ b/example-study-dd-conceptmap-1.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-07T22:04:54+00:00</t>
+    <t>2022-04-08T17:59:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/example-study-dd-conceptmap-1.xlsx
+++ b/example-study-dd-conceptmap-1.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-08T17:59:04+00:00</t>
+    <t>2022-04-08T17:59:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/example-study-dd-conceptmap-1.xlsx
+++ b/example-study-dd-conceptmap-1.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-08T17:59:36+00:00</t>
+    <t>2022-04-08T19:04:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/example-study-dd-conceptmap-1.xlsx
+++ b/example-study-dd-conceptmap-1.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-08T19:04:52+00:00</t>
+    <t>2022-04-08T19:05:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/example-study-dd-conceptmap-1.xlsx
+++ b/example-study-dd-conceptmap-1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="62">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-08T19:05:18+00:00</t>
+    <t>2022-04-11T21:19:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>Subject's BMI, Measured at Enrollment</t>
+  </si>
+  <si>
+    <t>source-is-narrower-than-target</t>
   </si>
   <si>
     <t>C1305855</t>
@@ -566,30 +569,30 @@
         <v>43</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -633,7 +636,7 @@
         <v>28</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>28</v>
@@ -647,13 +650,13 @@
         <v>43</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -697,7 +700,7 @@
         <v>28</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>28</v>
@@ -705,19 +708,19 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -761,7 +764,7 @@
         <v>28</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>28</v>
@@ -769,36 +772,36 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/example-study-dd-conceptmap-1.xlsx
+++ b/example-study-dd-conceptmap-1.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T21:19:38+00:00</t>
+    <t>2022-04-11T21:19:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/example-study-dd-conceptmap-1.xlsx
+++ b/example-study-dd-conceptmap-1.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T21:19:53+00:00</t>
+    <t>2022-04-11T21:41:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/example-study-dd-conceptmap-1.xlsx
+++ b/example-study-dd-conceptmap-1.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T21:41:41+00:00</t>
+    <t>2022-04-11T21:49:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/example-study-dd-conceptmap-1.xlsx
+++ b/example-study-dd-conceptmap-1.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T21:49:34+00:00</t>
+    <t>2022-04-22T15:57:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/example-study-dd-conceptmap-1.xlsx
+++ b/example-study-dd-conceptmap-1.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T15:57:10+00:00</t>
+    <t>2022-04-22T15:57:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/example-study-dd-conceptmap-1.xlsx
+++ b/example-study-dd-conceptmap-1.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T15:57:32+00:00</t>
+    <t>2022-04-26T17:19:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/example-study-dd-conceptmap-1.xlsx
+++ b/example-study-dd-conceptmap-1.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T17:19:32+00:00</t>
+    <t>2022-04-26T17:20:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/example-study-dd-conceptmap-1.xlsx
+++ b/example-study-dd-conceptmap-1.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T17:20:41+00:00</t>
+    <t>2022-04-26T22:45:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/example-study-dd-conceptmap-1.xlsx
+++ b/example-study-dd-conceptmap-1.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T22:45:35+00:00</t>
+    <t>2022-04-26T22:45:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
